--- a/Planejamento/Documentos Adicionais/Sistema de Custeio.xlsx
+++ b/Planejamento/Documentos Adicionais/Sistema de Custeio.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\OneDrive\Documentos\Engenharia de Software\Gerência de Projeto de Software\Projeto\Planejamento\Documentos Adicionais\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="27920" windowHeight="15120"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="27915" windowHeight="15120"/>
   </bookViews>
   <sheets>
     <sheet name="Inicial" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -479,17 +484,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -498,7 +503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -512,7 +517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -521,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -538,7 +543,7 @@
         <v>50440</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,7 +561,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -575,7 +580,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -594,7 +599,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -613,7 +618,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -632,7 +637,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -651,7 +656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -670,7 +675,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -689,7 +694,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -708,7 +713,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -727,12 +732,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -751,7 +756,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -770,7 +775,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D18" s="5">
         <v>0</v>
       </c>
@@ -778,30 +783,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="5"/>

--- a/Planejamento/Documentos Adicionais/Sistema de Custeio.xlsx
+++ b/Planejamento/Documentos Adicionais/Sistema de Custeio.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\OneDrive\Documentos\Engenharia de Software\Gerência de Projeto de Software\Projeto\Planejamento\Documentos Adicionais\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="27915" windowHeight="15120"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="27920" windowHeight="15120"/>
   </bookViews>
   <sheets>
     <sheet name="Inicial" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Total</t>
   </si>
@@ -62,9 +57,6 @@
     <t>Resultado Operacional</t>
   </si>
   <si>
-    <t>Salários dos Consultores</t>
-  </si>
-  <si>
     <t>Custos Variáveis Indiretos</t>
   </si>
   <si>
@@ -102,6 +94,15 @@
   </si>
   <si>
     <t>Salário Gerente de Projeto</t>
+  </si>
+  <si>
+    <t>Salário Gerente de Requisitos</t>
+  </si>
+  <si>
+    <t>Salário Gerente de Qualidade</t>
+  </si>
+  <si>
+    <t>Salários dos Desenvolvedores</t>
   </si>
 </sst>
 </file>
@@ -111,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -136,6 +137,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,8 +167,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -170,7 +185,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,46 +495,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -526,24 +543,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7">
-        <f>SUM(D5:D17)</f>
-        <v>50440</v>
+        <f>SUM(D5:D19)</f>
+        <v>79200</v>
       </c>
       <c r="E4" s="7">
-        <f>SUM(E5:E17)</f>
-        <v>50440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f>SUM(E5:E19)</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -561,7 +578,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -580,31 +597,31 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7">
         <v>2500</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" ref="D7:D14" si="1">E7</f>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>1500</v>
@@ -618,7 +635,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -637,12 +654,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
         <v>100</v>
@@ -656,12 +673,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>50</v>
@@ -675,74 +692,74 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>200</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
         <v>200</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>80</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7">
         <v>2000</v>
@@ -756,60 +773,98 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="D17" s="5">
         <f>E17</f>
-        <v>8400</v>
+        <v>12000</v>
       </c>
       <c r="E17" s="7">
         <f>C17*A17</f>
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3200</v>
+      </c>
       <c r="D18" s="5">
+        <f>E18</f>
+        <v>9600</v>
+      </c>
+      <c r="E18" s="7">
+        <f>C18*A18</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3200</v>
+      </c>
+      <c r="D19" s="5">
+        <f>E19</f>
+        <v>9600</v>
+      </c>
+      <c r="E19" s="7">
+        <f>C19*A19</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="D20" s="5">
         <v>0</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E20" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="1:5">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="22" spans="1:5">
+      <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="5"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
